--- a/eduardo/AULA 4.xlsx
+++ b/eduardo/AULA 4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Precendentes" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,12 @@
     <sheet name="HORA,MINUTO,SEGUNDO" sheetId="11" r:id="rId10"/>
     <sheet name="DIAS" sheetId="12" r:id="rId11"/>
     <sheet name="EXERCÍCIO" sheetId="13" r:id="rId12"/>
+    <sheet name="FERIADOS" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="feriados">DIATRABALHO!$A$6:$A$7</definedName>
     <definedName name="feriados1">DIATRABALHOTOTAL!$A$6:$A$7</definedName>
+    <definedName name="feriadoscarlos">FERIADOS!$A$2:$A$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>=</t>
   </si>
@@ -132,19 +134,25 @@
     <t>DIAS(B1;B2)</t>
   </si>
   <si>
-    <t>Valor Hora</t>
-  </si>
-  <si>
-    <t>Jornada</t>
-  </si>
-  <si>
-    <t>Reajuste</t>
-  </si>
-  <si>
     <t>Data reajuste</t>
   </si>
   <si>
-    <t>4 horas</t>
+    <t>Carlos (Variáveis)</t>
+  </si>
+  <si>
+    <t>Recebeu</t>
+  </si>
+  <si>
+    <t>Horas por dia</t>
+  </si>
+  <si>
+    <t>Valor Hora Março</t>
+  </si>
+  <si>
+    <t>Reajuste Abril</t>
+  </si>
+  <si>
+    <t>Coluna1</t>
   </si>
 </sst>
 </file>
@@ -153,9 +161,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +178,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -179,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -202,12 +225,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -221,17 +314,118 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -242,6 +436,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="A1:B6" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:B6"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Carlos (Variáveis)" dataDxfId="2"/>
+    <tableColumn id="2" name="Coluna1" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -643,7 +848,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,64 +891,121 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="18">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="19">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="20">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="19">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="14">
+        <f>NETWORKDAYS(B2,EOMONTH(B2,2),feriadoscarlos)*(B6*B3)+NETWORKDAYS(B4,EOMONTH(B4,1),feriadoscarlos)*(B6*(B3+B5))</f>
+        <v>25040</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A2:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>43466</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2">
-        <f>EOMONTH(B1,4)</f>
-        <v>43616</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="7">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="2">
-        <v>43556</v>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>43574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>43586</v>
       </c>
     </row>
   </sheetData>
@@ -954,7 +1216,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,7 +1317,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
